--- a/public/xlsx/全部.xlsx
+++ b/public/xlsx/全部.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E17"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -410,36 +410,36 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>华东区</v>
+        <v>京津冀</v>
       </c>
       <c r="B3" t="str">
-        <v>卓新智趣杭州第二分公司</v>
+        <v>北京中关村</v>
       </c>
       <c r="C3" t="str">
-        <v>高丽君</v>
+        <v>学习</v>
       </c>
       <c r="D3" t="str">
         <v>UI设计</v>
       </c>
       <c r="E3">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>京津冀</v>
+        <v>华东区</v>
       </c>
       <c r="B4" t="str">
-        <v>北京回龙观</v>
+        <v>卓新智趣杭州第二分公司</v>
       </c>
       <c r="C4" t="str">
-        <v>张三1</v>
+        <v>高丽君</v>
       </c>
       <c r="D4" t="str">
-        <v>Android专业</v>
+        <v>UI设计</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5">
@@ -447,33 +447,220 @@
         <v>京津冀</v>
       </c>
       <c r="B5" t="str">
-        <v>北京回龙观</v>
+        <v>石家庄民族路</v>
       </c>
       <c r="C5" t="str">
-        <v>张三12</v>
+        <v>收到</v>
       </c>
       <c r="D5" t="str">
-        <v>Android专业</v>
+        <v>安卓</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>京津冀</v>
+        <v>西北区</v>
       </c>
       <c r="B6" t="str">
+        <v>西安华融</v>
+      </c>
+      <c r="C6" t="str">
+        <v>干活</v>
+      </c>
+      <c r="D6" t="str">
+        <v>java</v>
+      </c>
+      <c r="E6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B7" t="str">
+        <v>天津南开</v>
+      </c>
+      <c r="C7" t="str">
+        <v>好艰巨</v>
+      </c>
+      <c r="D7" t="str">
+        <v>java</v>
+      </c>
+      <c r="E7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B8" t="str">
+        <v>翡翠昌平</v>
+      </c>
+      <c r="C8" t="str">
+        <v>撒地方</v>
+      </c>
+      <c r="D8" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B9" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C9" t="str">
+        <v>等待</v>
+      </c>
+      <c r="D9" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>上海区</v>
+      </c>
+      <c r="B10" t="str">
+        <v>上海徐汇</v>
+      </c>
+      <c r="C10" t="str">
+        <v>回家</v>
+      </c>
+      <c r="D10" t="str">
+        <v>网络营销</v>
+      </c>
+      <c r="E10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B11" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C11" t="str">
+        <v>飞车</v>
+      </c>
+      <c r="D11" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="E11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B12" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C12" t="str">
+        <v>卡罗拉</v>
+      </c>
+      <c r="D12" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="E12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B13" t="str">
         <v>北京回龙观</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C13" t="str">
+        <v>张三1</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Android专业</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B14" t="str">
+        <v>北京回龙观</v>
+      </c>
+      <c r="C14" t="str">
+        <v>张三12</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Android专业</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B15" t="str">
+        <v>北京回龙观</v>
+      </c>
+      <c r="C15" t="str">
         <v>李四</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D15" t="str">
         <v>UI专业</v>
       </c>
-      <c r="E6">
+      <c r="E15">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>西北区</v>
+      </c>
+      <c r="B16" t="str">
+        <v>完美先雁塔区小寨校区</v>
+      </c>
+      <c r="C16" t="str">
+        <v>你好</v>
+      </c>
+      <c r="D16" t="str">
+        <v>网络营销</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>京津冀</v>
+      </c>
+      <c r="B17" t="str">
+        <v>北京中关村</v>
+      </c>
+      <c r="C17" t="str">
+        <v>领了</v>
+      </c>
+      <c r="D17" t="str">
+        <v>UI设计</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/public/xlsx/全部.xlsx
+++ b/public/xlsx/全部.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E7"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -399,13 +399,13 @@
         <v>北京中关村</v>
       </c>
       <c r="C2" t="str">
-        <v>代立旺</v>
+        <v>框架</v>
       </c>
       <c r="D2" t="str">
-        <v>java</v>
+        <v>UI设计</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -416,30 +416,30 @@
         <v>北京中关村</v>
       </c>
       <c r="C3" t="str">
-        <v>学习</v>
+        <v>我去</v>
       </c>
       <c r="D3" t="str">
         <v>UI设计</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>华东区</v>
+        <v>京津冀</v>
       </c>
       <c r="B4" t="str">
-        <v>卓新智趣杭州第二分公司</v>
+        <v>北京中关村</v>
       </c>
       <c r="C4" t="str">
-        <v>高丽君</v>
+        <v>戴亮</v>
       </c>
       <c r="D4" t="str">
         <v>UI设计</v>
       </c>
       <c r="E4">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -447,33 +447,33 @@
         <v>京津冀</v>
       </c>
       <c r="B5" t="str">
-        <v>石家庄民族路</v>
+        <v>北京中关村</v>
       </c>
       <c r="C5" t="str">
-        <v>收到</v>
+        <v>程序</v>
       </c>
       <c r="D5" t="str">
-        <v>安卓</v>
+        <v>web前端</v>
       </c>
       <c r="E5">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>西北区</v>
+        <v>京津冀</v>
       </c>
       <c r="B6" t="str">
-        <v>西安华融</v>
+        <v>北京中关村</v>
       </c>
       <c r="C6" t="str">
-        <v>干活</v>
+        <v>离开</v>
       </c>
       <c r="D6" t="str">
-        <v>java</v>
+        <v>UI设计</v>
       </c>
       <c r="E6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -481,186 +481,16 @@
         <v>京津冀</v>
       </c>
       <c r="B7" t="str">
-        <v>天津南开</v>
+        <v>北京中关村</v>
       </c>
       <c r="C7" t="str">
-        <v>好艰巨</v>
+        <v>从想</v>
       </c>
       <c r="D7" t="str">
-        <v>java</v>
+        <v>UI设计</v>
       </c>
       <c r="E7">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B8" t="str">
-        <v>翡翠昌平</v>
-      </c>
-      <c r="C8" t="str">
-        <v>撒地方</v>
-      </c>
-      <c r="D8" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B9" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C9" t="str">
-        <v>等待</v>
-      </c>
-      <c r="D9" t="str">
-        <v>UI设计</v>
-      </c>
-      <c r="E9">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>上海区</v>
-      </c>
-      <c r="B10" t="str">
-        <v>上海徐汇</v>
-      </c>
-      <c r="C10" t="str">
-        <v>回家</v>
-      </c>
-      <c r="D10" t="str">
-        <v>网络营销</v>
-      </c>
-      <c r="E10">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B11" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C11" t="str">
-        <v>飞车</v>
-      </c>
-      <c r="D11" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="E11">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B12" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C12" t="str">
-        <v>卡罗拉</v>
-      </c>
-      <c r="D12" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="E12">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B13" t="str">
-        <v>北京回龙观</v>
-      </c>
-      <c r="C13" t="str">
-        <v>张三1</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Android专业</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B14" t="str">
-        <v>北京回龙观</v>
-      </c>
-      <c r="C14" t="str">
-        <v>张三12</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Android专业</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B15" t="str">
-        <v>北京回龙观</v>
-      </c>
-      <c r="C15" t="str">
-        <v>李四</v>
-      </c>
-      <c r="D15" t="str">
-        <v>UI专业</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>西北区</v>
-      </c>
-      <c r="B16" t="str">
-        <v>完美先雁塔区小寨校区</v>
-      </c>
-      <c r="C16" t="str">
-        <v>你好</v>
-      </c>
-      <c r="D16" t="str">
-        <v>网络营销</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>京津冀</v>
-      </c>
-      <c r="B17" t="str">
-        <v>北京中关村</v>
-      </c>
-      <c r="C17" t="str">
-        <v>领了</v>
-      </c>
-      <c r="D17" t="str">
-        <v>UI设计</v>
-      </c>
-      <c r="E17">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
